--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69074A1A-E227-2144-9EDF-240F2BEF885F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F296BBC-2514-4644-986C-3937E7B58375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="5140" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2360" yWindow="8720" windowWidth="19700" windowHeight="15960" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,14 +1240,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>45729</v>
+        <v>45728</v>
       </c>
       <c r="B14" s="9">
         <v>5</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>45733</v>
+        <v>45732</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F296BBC-2514-4644-986C-3937E7B58375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36EFB81-5D73-A749-85B1-B12D0482259C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="8720" windowWidth="19700" windowHeight="15960" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="15000" yWindow="7480" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,8 +916,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -935,7 +934,6 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
         <v>45777</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -987,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36EFB81-5D73-A749-85B1-B12D0482259C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E37B9-536B-EA46-B63B-D854CF3CDF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="7480" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="10540" yWindow="3680" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Linear Regression Part 2</t>
   </si>
   <si>
-    <t>12:00 pm</t>
-  </si>
-  <si>
     <t>1:00 pm</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
   </si>
   <si>
     <t>NumDays</t>
-  </si>
-  <si>
-    <t>00-Intro_to_Course</t>
   </si>
 </sst>
 </file>
@@ -634,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,19 +672,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45684</v>
+        <v>45680</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -910,7 +901,7 @@
         <v>45763</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -1003,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -1179,7 +1170,7 @@
         <v>45760</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1198,7 +1189,7 @@
         <v>45767</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1214,7 +1205,7 @@
         <v>45774</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E37B9-536B-EA46-B63B-D854CF3CDF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540853B5-DC5C-5C4E-8A6E-F0EBE70AC4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="3680" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2880" yWindow="8060" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>NumDays</t>
+  </si>
+  <si>
+    <t>00-Intro_to_Course</t>
+  </si>
+  <si>
+    <t>01WwVLU5NHw</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,6 +688,12 @@
       </c>
       <c r="D2" t="s">
         <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
       </c>
       <c r="H2" s="5"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540853B5-DC5C-5C4E-8A6E-F0EBE70AC4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D0B9C9-101C-D940-B6D0-F74C2976B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="8060" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1680" yWindow="10920" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>01WwVLU5NHw</t>
+  </si>
+  <si>
+    <t>01-Intro_to_Data</t>
+  </si>
+  <si>
+    <t>K6U4w4TH2OQ</t>
   </si>
 </sst>
 </file>
@@ -713,6 +719,12 @@
       <c r="E3" t="s">
         <v>48</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
